--- a/Code/Results/Cases/Case_5_198/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_198/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.146702832476706</v>
+        <v>1.083068580486611</v>
       </c>
       <c r="C2">
-        <v>1.248334576981279</v>
+        <v>0.3889912089759378</v>
       </c>
       <c r="D2">
-        <v>0.01306212442326959</v>
+        <v>0.02578659238723624</v>
       </c>
       <c r="E2">
-        <v>0.1439887897525054</v>
+        <v>0.07562253673336627</v>
       </c>
       <c r="F2">
-        <v>1.772302535921824</v>
+        <v>1.260833122626849</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.7759202283081734</v>
+        <v>0.7608190033730722</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.182501040243892</v>
+        <v>0.4319326158130536</v>
       </c>
       <c r="N2">
-        <v>0.651277861317574</v>
+        <v>1.253478116961723</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.712691443168467</v>
+        <v>0.9674094650519578</v>
       </c>
       <c r="C3">
-        <v>1.073781982960952</v>
+        <v>0.3422684674263223</v>
       </c>
       <c r="D3">
-        <v>0.01397208989352627</v>
+        <v>0.02618341187863393</v>
       </c>
       <c r="E3">
-        <v>0.1249383379666149</v>
+        <v>0.07133779144054841</v>
       </c>
       <c r="F3">
-        <v>1.567258490174254</v>
+        <v>1.217775299302204</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.7059569023808336</v>
+        <v>0.749140164128498</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.017834837231042</v>
+        <v>0.3895921539997147</v>
       </c>
       <c r="N3">
-        <v>0.6915412449172038</v>
+        <v>1.269049954758621</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.449874571939972</v>
+        <v>0.8967779099120321</v>
       </c>
       <c r="C4">
-        <v>0.9683777583636868</v>
+        <v>0.3136872558378911</v>
       </c>
       <c r="D4">
-        <v>0.01460081958041926</v>
+        <v>0.02644378740342823</v>
       </c>
       <c r="E4">
-        <v>0.1136041286349361</v>
+        <v>0.06876489150386789</v>
       </c>
       <c r="F4">
-        <v>1.445757927319249</v>
+        <v>1.192292039348587</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.6652144206421156</v>
+        <v>0.7425255544600091</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9185632412913876</v>
+        <v>0.3638062761704859</v>
       </c>
       <c r="N4">
-        <v>0.7179185728449156</v>
+        <v>1.279164933352753</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.343551249304085</v>
+        <v>0.86808990282276</v>
       </c>
       <c r="C5">
-        <v>0.9257997972337364</v>
+        <v>0.3020659771153191</v>
       </c>
       <c r="D5">
-        <v>0.01487303206702251</v>
+        <v>0.02655406488560885</v>
       </c>
       <c r="E5">
-        <v>0.1090647843052821</v>
+        <v>0.06773075542653828</v>
       </c>
       <c r="F5">
-        <v>1.397227067633693</v>
+        <v>1.182145330265115</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.6491124865084572</v>
+        <v>0.7399689340136817</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.878502491243232</v>
+        <v>0.3533504694243135</v>
       </c>
       <c r="N5">
-        <v>0.7290591146480452</v>
+        <v>1.283425591205251</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.32593924006818</v>
+        <v>0.8633319701249889</v>
       </c>
       <c r="C6">
-        <v>0.9187504783295992</v>
+        <v>0.300137800484066</v>
       </c>
       <c r="D6">
-        <v>0.01491915548105105</v>
+        <v>0.02657262739834287</v>
       </c>
       <c r="E6">
-        <v>0.1083155034145378</v>
+        <v>0.06755989741226642</v>
       </c>
       <c r="F6">
-        <v>1.389224420292095</v>
+        <v>1.180474786978834</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.6464674829377088</v>
+        <v>0.7395527688929633</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8718723138589439</v>
+        <v>0.3516174114867638</v>
       </c>
       <c r="N6">
-        <v>0.7309319628847106</v>
+        <v>1.284141433036631</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.448437696721726</v>
+        <v>0.8963906310762582</v>
       </c>
       <c r="C7">
-        <v>0.9678021066503959</v>
+        <v>0.3135304241189942</v>
       </c>
       <c r="D7">
-        <v>0.01460442794348182</v>
+        <v>0.02644525779485107</v>
       </c>
       <c r="E7">
-        <v>0.1135426026004147</v>
+        <v>0.0687508870170106</v>
       </c>
       <c r="F7">
-        <v>1.445099604766085</v>
+        <v>1.192154236666994</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.6649953064976017</v>
+        <v>0.7424905139466631</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9180214611829882</v>
+        <v>0.3636650556602348</v>
       </c>
       <c r="N7">
-        <v>0.7180672636604584</v>
+        <v>1.279221833122982</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.996202464547878</v>
+        <v>1.043108730473364</v>
       </c>
       <c r="C8">
-        <v>1.187736596942273</v>
+        <v>0.3728584082920747</v>
       </c>
       <c r="D8">
-        <v>0.01336032871901693</v>
+        <v>0.02591992372453333</v>
       </c>
       <c r="E8">
-        <v>0.137337415247039</v>
+        <v>0.07413298794923406</v>
       </c>
       <c r="F8">
-        <v>1.700612352256627</v>
+        <v>1.245787428709249</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.7513017008548246</v>
+        <v>0.7566760899402993</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.1253005015881</v>
+        <v>0.4172891464775361</v>
       </c>
       <c r="N8">
-        <v>0.6648014922633294</v>
+        <v>1.258732020899394</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.106842493394709</v>
+        <v>1.333951536604218</v>
       </c>
       <c r="C9">
-        <v>1.636657624950146</v>
+        <v>0.4901005027218162</v>
       </c>
       <c r="D9">
-        <v>0.01155883390792489</v>
+        <v>0.02502398252490856</v>
       </c>
       <c r="E9">
-        <v>0.187478044840951</v>
+        <v>0.08515814239235908</v>
       </c>
       <c r="F9">
-        <v>2.242826868379026</v>
+        <v>1.358635580791073</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.9409536980222555</v>
+        <v>0.7889546083764856</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.549772723799535</v>
+        <v>0.5241733850616868</v>
       </c>
       <c r="N9">
-        <v>0.5747259728201186</v>
+        <v>1.222969436414559</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.956757334949089</v>
+        <v>1.54968248079058</v>
       </c>
       <c r="C10">
-        <v>1.982911451687016</v>
+        <v>0.5768693767556101</v>
       </c>
       <c r="D10">
-        <v>0.01075881199071205</v>
+        <v>0.02444966655351877</v>
       </c>
       <c r="E10">
-        <v>0.2273957053914373</v>
+        <v>0.09356162687728187</v>
       </c>
       <c r="F10">
-        <v>2.676195200433227</v>
+        <v>1.446373341710995</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.097204062994336</v>
+        <v>0.8154579872626613</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.878083410597355</v>
+        <v>0.6038330271779841</v>
       </c>
       <c r="N10">
-        <v>0.5192785873644183</v>
+        <v>1.19941986094809</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.353843140581944</v>
+        <v>1.64830126175832</v>
       </c>
       <c r="C11">
-        <v>2.145501274015373</v>
+        <v>0.6164983264730495</v>
       </c>
       <c r="D11">
-        <v>0.01054537731511473</v>
+        <v>0.02420708247660386</v>
       </c>
       <c r="E11">
-        <v>0.2464791207098003</v>
+        <v>0.09745405272480667</v>
       </c>
       <c r="F11">
-        <v>2.883552950645225</v>
+        <v>1.487369310619016</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.173135281871424</v>
+        <v>0.8281358075262375</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.03245895108455</v>
+        <v>0.6403357010164967</v>
       </c>
       <c r="N11">
-        <v>0.4969042225005253</v>
+        <v>1.189305283742208</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.506012922598131</v>
+        <v>1.685717092737832</v>
       </c>
       <c r="C12">
-        <v>2.20794780161458</v>
+        <v>0.6315287491458434</v>
       </c>
       <c r="D12">
-        <v>0.01048995612149994</v>
+        <v>0.02411794732111616</v>
       </c>
       <c r="E12">
-        <v>0.2538638219108122</v>
+        <v>0.09893830691743943</v>
       </c>
       <c r="F12">
-        <v>2.963799014128284</v>
+        <v>1.503051786114696</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.202701842477055</v>
+        <v>0.8330271019374749</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.091781891868877</v>
+        <v>0.6541977228741445</v>
       </c>
       <c r="N12">
-        <v>0.4888929617152513</v>
+        <v>1.185561801801171</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.473155056956045</v>
+        <v>1.67765573594545</v>
       </c>
       <c r="C13">
-        <v>2.194457217928232</v>
+        <v>0.6282906013378806</v>
       </c>
       <c r="D13">
-        <v>0.01050069519842012</v>
+        <v>0.02413702226814252</v>
       </c>
       <c r="E13">
-        <v>0.2522659114407517</v>
+        <v>0.09861818491864227</v>
       </c>
       <c r="F13">
-        <v>2.946435428664444</v>
+        <v>1.499667210743354</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.196295969859065</v>
+        <v>0.8319696318308871</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.078964706289455</v>
+        <v>0.6512105245237336</v>
       </c>
       <c r="N13">
-        <v>0.4905968982037692</v>
+        <v>1.186364161444374</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.366324255736004</v>
+        <v>1.651378050666722</v>
       </c>
       <c r="C14">
-        <v>2.150620281003739</v>
+        <v>0.6177344046304256</v>
       </c>
       <c r="D14">
-        <v>0.01054028475680724</v>
+        <v>0.02419969440174441</v>
       </c>
       <c r="E14">
-        <v>0.2470833343376597</v>
+        <v>0.09757595572350652</v>
       </c>
       <c r="F14">
-        <v>2.890118689076161</v>
+        <v>1.48865633323885</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.17555072312237</v>
+        <v>0.8285363973644451</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.037321274846065</v>
+        <v>0.6414753446965165</v>
       </c>
       <c r="N14">
-        <v>0.4962355587802492</v>
+        <v>1.188995564026527</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.301131598334507</v>
+        <v>1.635291514350627</v>
       </c>
       <c r="C15">
-        <v>2.12388789453081</v>
+        <v>0.6112715638606687</v>
       </c>
       <c r="D15">
-        <v>0.01056796554739847</v>
+        <v>0.02423843914090895</v>
       </c>
       <c r="E15">
-        <v>0.2439302800942826</v>
+        <v>0.09693890648996017</v>
       </c>
       <c r="F15">
-        <v>2.855855822440986</v>
+        <v>1.481932524906512</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.162953262119743</v>
+        <v>0.826445259144748</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.011930597406462</v>
+        <v>0.6355174115283404</v>
       </c>
       <c r="N15">
-        <v>0.4997511633196297</v>
+        <v>1.190618683370396</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.931041766526619</v>
+        <v>1.543247354958282</v>
       </c>
       <c r="C16">
-        <v>1.972400072945561</v>
+        <v>0.5742827978181708</v>
       </c>
       <c r="D16">
-        <v>0.01077609559332515</v>
+        <v>0.02446589924815434</v>
       </c>
       <c r="E16">
-        <v>0.2261692364191248</v>
+        <v>0.09330867140024424</v>
       </c>
       <c r="F16">
-        <v>2.662870421116764</v>
+        <v>1.443716165697822</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.092348891775345</v>
+        <v>0.8146420608913587</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.86810735684027</v>
+        <v>0.6014529223013341</v>
       </c>
       <c r="N16">
-        <v>0.5208023812747484</v>
+        <v>1.200092966922064</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.706880553750864</v>
+        <v>1.486905865424319</v>
       </c>
       <c r="C17">
-        <v>1.880865543033508</v>
+        <v>0.5516325179778505</v>
       </c>
       <c r="D17">
-        <v>0.0109447993766274</v>
+        <v>0.02461025053717769</v>
       </c>
       <c r="E17">
-        <v>0.2155270099322379</v>
+        <v>0.09109966183639528</v>
       </c>
       <c r="F17">
-        <v>2.547266788979414</v>
+        <v>1.420550883784529</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.050355006296158</v>
+        <v>0.8075611152854378</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.781257847147572</v>
+        <v>0.580624158679143</v>
       </c>
       <c r="N17">
-        <v>0.5344807487500276</v>
+        <v>1.206058825459415</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.578912815627461</v>
+        <v>1.454544961506883</v>
       </c>
       <c r="C18">
-        <v>1.828685183705602</v>
+        <v>0.5386194157027262</v>
       </c>
       <c r="D18">
-        <v>0.01105573900228585</v>
+        <v>0.02469503289430897</v>
       </c>
       <c r="E18">
-        <v>0.2094911927096206</v>
+        <v>0.08983563671671391</v>
       </c>
       <c r="F18">
-        <v>2.481718943759745</v>
+        <v>1.407328678409129</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.026650118072823</v>
+        <v>0.8035467535545138</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.731767689520382</v>
+        <v>0.5686688887573581</v>
       </c>
       <c r="N18">
-        <v>0.5426128206040772</v>
+        <v>1.209546498752104</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.535742280596651</v>
+        <v>1.443595830568938</v>
       </c>
       <c r="C19">
-        <v>1.811094037661974</v>
+        <v>0.5342158990144981</v>
       </c>
       <c r="D19">
-        <v>0.011095585359854</v>
+        <v>0.02472403899102105</v>
       </c>
       <c r="E19">
-        <v>0.2074615137788385</v>
+        <v>0.08940877461518681</v>
       </c>
       <c r="F19">
-        <v>2.459680579941192</v>
+        <v>1.402869288389553</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.018697902859969</v>
+        <v>0.8021975573637974</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.71508678155115</v>
+        <v>0.5646252795235824</v>
       </c>
       <c r="N19">
-        <v>0.5454101986542099</v>
+        <v>1.210737009267582</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.730641116674178</v>
+        <v>1.492898819256254</v>
       </c>
       <c r="C20">
-        <v>1.890560129920573</v>
+        <v>0.5540421450093049</v>
       </c>
       <c r="D20">
-        <v>0.01092537621015666</v>
+        <v>0.02459470213441861</v>
       </c>
       <c r="E20">
-        <v>0.2166508933247897</v>
+        <v>0.0913341360459583</v>
       </c>
       <c r="F20">
-        <v>2.559473531618579</v>
+        <v>1.423006309233614</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.054778087582136</v>
+        <v>0.8083088405401497</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.790454208480355</v>
+        <v>0.5828388325993217</v>
       </c>
       <c r="N20">
-        <v>0.5329969239347321</v>
+        <v>1.20541792121552</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.397651544093264</v>
+        <v>1.659094501508889</v>
       </c>
       <c r="C21">
-        <v>2.163471156430148</v>
+        <v>0.6208343601407478</v>
       </c>
       <c r="D21">
-        <v>0.01052793363933446</v>
+        <v>0.02418121176135912</v>
       </c>
       <c r="E21">
-        <v>0.2486010672431647</v>
+        <v>0.09788180267186419</v>
       </c>
       <c r="F21">
-        <v>2.906611262552275</v>
+        <v>1.49188618255647</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.181621033223934</v>
+        <v>0.8295423568430209</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.049528266889112</v>
+        <v>0.6443337286201114</v>
       </c>
       <c r="N21">
-        <v>0.4945663725016161</v>
+        <v>1.188220299260223</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.844257344994162</v>
+        <v>1.768127908675979</v>
       </c>
       <c r="C22">
-        <v>2.347033389989633</v>
+        <v>0.664626213341478</v>
       </c>
       <c r="D22">
-        <v>0.01041850095142749</v>
+        <v>0.02392688152776401</v>
       </c>
       <c r="E22">
-        <v>0.270419412170007</v>
+        <v>0.1022211083982043</v>
       </c>
       <c r="F22">
-        <v>3.14368326870877</v>
+        <v>1.537826346321395</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.269326071028985</v>
+        <v>0.8439476061414837</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.223968059638523</v>
+        <v>0.6847535241899152</v>
       </c>
       <c r="N22">
-        <v>0.4721693862862821</v>
+        <v>1.177486263045218</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.604807826937986</v>
+        <v>1.709896165592738</v>
       </c>
       <c r="C23">
-        <v>2.248532256815395</v>
+        <v>0.641240540679064</v>
       </c>
       <c r="D23">
-        <v>0.010461728145291</v>
+        <v>0.02406115298251876</v>
       </c>
       <c r="E23">
-        <v>0.2586793674180115</v>
+        <v>0.09989955885981772</v>
       </c>
       <c r="F23">
-        <v>3.016125710723941</v>
+        <v>1.513221954022356</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.222033689011539</v>
+        <v>0.8362105694615423</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.130345087701158</v>
+        <v>0.6631593567838792</v>
       </c>
       <c r="N23">
-        <v>0.4838549800444767</v>
+        <v>1.183168735944157</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.719896167619879</v>
+        <v>1.490189309746654</v>
       </c>
       <c r="C24">
-        <v>1.886175834851883</v>
+        <v>0.5529527251653121</v>
       </c>
       <c r="D24">
-        <v>0.01093411424906776</v>
+        <v>0.02460172598677701</v>
       </c>
       <c r="E24">
-        <v>0.2161425304013136</v>
+        <v>0.09122811169943645</v>
       </c>
       <c r="F24">
-        <v>2.553952034442233</v>
+        <v>1.421895913097103</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.052777056885873</v>
+        <v>0.8079706178409083</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.786295170991721</v>
+        <v>0.5818375179798778</v>
       </c>
       <c r="N24">
-        <v>0.5336669295754888</v>
+        <v>1.205707493972398</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.801360812439157</v>
+        <v>1.254921411902387</v>
       </c>
       <c r="C25">
-        <v>1.512782442125797</v>
+        <v>0.4582785970090981</v>
       </c>
       <c r="D25">
-        <v>0.01196521757026225</v>
+        <v>0.02525177308515758</v>
       </c>
       <c r="E25">
-        <v>0.1734499876844993</v>
+        <v>0.08212346921160218</v>
       </c>
       <c r="F25">
-        <v>2.090789030598884</v>
+        <v>1.327270233735646</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.8870353417405283</v>
+        <v>0.7797377847152518</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.432491527361336</v>
+        <v>0.4950653572952319</v>
       </c>
       <c r="N25">
-        <v>0.5973669992791173</v>
+        <v>1.232167932425611</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_198/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_198/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.083068580486611</v>
+        <v>3.146702832476706</v>
       </c>
       <c r="C2">
-        <v>0.3889912089759378</v>
+        <v>1.248334576981108</v>
       </c>
       <c r="D2">
-        <v>0.02578659238723624</v>
+        <v>0.01306212442293742</v>
       </c>
       <c r="E2">
-        <v>0.07562253673336627</v>
+        <v>0.1439887897524912</v>
       </c>
       <c r="F2">
-        <v>1.260833122626849</v>
+        <v>1.772302535921838</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.7608190033730722</v>
+        <v>0.7759202283081592</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4319326158130536</v>
+        <v>1.182501040243878</v>
       </c>
       <c r="N2">
-        <v>1.253478116961723</v>
+        <v>0.6512778613175598</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9674094650519578</v>
+        <v>2.71269144316841</v>
       </c>
       <c r="C3">
-        <v>0.3422684674263223</v>
+        <v>1.073781982961293</v>
       </c>
       <c r="D3">
-        <v>0.02618341187863393</v>
+        <v>0.01397208989373233</v>
       </c>
       <c r="E3">
-        <v>0.07133779144054841</v>
+        <v>0.1249383379666185</v>
       </c>
       <c r="F3">
-        <v>1.217775299302204</v>
+        <v>1.56725849017424</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.749140164128498</v>
+        <v>0.7059569023808336</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3895921539997147</v>
+        <v>1.017834837231021</v>
       </c>
       <c r="N3">
-        <v>1.269049954758621</v>
+        <v>0.6915412449172749</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8967779099120321</v>
+        <v>2.449874571939802</v>
       </c>
       <c r="C4">
-        <v>0.3136872558378911</v>
+        <v>0.9683777583636868</v>
       </c>
       <c r="D4">
-        <v>0.02644378740342823</v>
+        <v>0.01460081958044235</v>
       </c>
       <c r="E4">
-        <v>0.06876489150386789</v>
+        <v>0.1136041286349361</v>
       </c>
       <c r="F4">
-        <v>1.192292039348587</v>
+        <v>1.445757927319249</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.7425255544600091</v>
+        <v>0.6652144206421085</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3638062761704859</v>
+        <v>0.9185632412913947</v>
       </c>
       <c r="N4">
-        <v>1.279164933352753</v>
+        <v>0.7179185728448942</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.86808990282276</v>
+        <v>2.343551249304028</v>
       </c>
       <c r="C5">
-        <v>0.3020659771153191</v>
+        <v>0.9257997972338785</v>
       </c>
       <c r="D5">
-        <v>0.02655406488560885</v>
+        <v>0.01487303206680757</v>
       </c>
       <c r="E5">
-        <v>0.06773075542653828</v>
+        <v>0.1090647843052928</v>
       </c>
       <c r="F5">
-        <v>1.182145330265115</v>
+        <v>1.397227067633679</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.7399689340136817</v>
+        <v>0.6491124865084288</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3533504694243135</v>
+        <v>0.8785024912432604</v>
       </c>
       <c r="N5">
-        <v>1.283425591205251</v>
+        <v>0.7290591146480097</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8633319701249889</v>
+        <v>2.325939240068294</v>
       </c>
       <c r="C6">
-        <v>0.300137800484066</v>
+        <v>0.9187504783295424</v>
       </c>
       <c r="D6">
-        <v>0.02657262739834287</v>
+        <v>0.01491915548105638</v>
       </c>
       <c r="E6">
-        <v>0.06755989741226642</v>
+        <v>0.1083155034145697</v>
       </c>
       <c r="F6">
-        <v>1.180474786978834</v>
+        <v>1.389224420292095</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.7395527688929633</v>
+        <v>0.6464674829376946</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3516174114867638</v>
+        <v>0.8718723138589226</v>
       </c>
       <c r="N6">
-        <v>1.284141433036631</v>
+        <v>0.7309319628846254</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8963906310762582</v>
+        <v>2.448437696721783</v>
       </c>
       <c r="C7">
-        <v>0.3135304241189942</v>
+        <v>0.9678021066504527</v>
       </c>
       <c r="D7">
-        <v>0.02644525779485107</v>
+        <v>0.01460442794338768</v>
       </c>
       <c r="E7">
-        <v>0.0687508870170106</v>
+        <v>0.1135426026004076</v>
       </c>
       <c r="F7">
-        <v>1.192154236666994</v>
+        <v>1.445099604766085</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.7424905139466631</v>
+        <v>0.6649953064975875</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3636650556602348</v>
+        <v>0.9180214611829882</v>
       </c>
       <c r="N7">
-        <v>1.279221833122982</v>
+        <v>0.7180672636603802</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.043108730473364</v>
+        <v>2.996202464547764</v>
       </c>
       <c r="C8">
-        <v>0.3728584082920747</v>
+        <v>1.187736596942727</v>
       </c>
       <c r="D8">
-        <v>0.02591992372453333</v>
+        <v>0.01336032871924075</v>
       </c>
       <c r="E8">
-        <v>0.07413298794923406</v>
+        <v>0.137337415247039</v>
       </c>
       <c r="F8">
-        <v>1.245787428709249</v>
+        <v>1.700612352256627</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.7566760899402993</v>
+        <v>0.7513017008548388</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4172891464775361</v>
+        <v>1.125300501588107</v>
       </c>
       <c r="N8">
-        <v>1.258732020899394</v>
+        <v>0.6648014922633294</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.333951536604218</v>
+        <v>4.106842493394822</v>
       </c>
       <c r="C9">
-        <v>0.4901005027218162</v>
+        <v>1.636657624950146</v>
       </c>
       <c r="D9">
-        <v>0.02502398252490856</v>
+        <v>0.0115588339080297</v>
       </c>
       <c r="E9">
-        <v>0.08515814239235908</v>
+        <v>0.1874780448409368</v>
       </c>
       <c r="F9">
-        <v>1.358635580791073</v>
+        <v>2.242826868379041</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.7889546083764856</v>
+        <v>0.9409536980222697</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5241733850616868</v>
+        <v>1.549772723799549</v>
       </c>
       <c r="N9">
-        <v>1.222969436414559</v>
+        <v>0.5747259728201257</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.54968248079058</v>
+        <v>4.956757334949202</v>
       </c>
       <c r="C10">
-        <v>0.5768693767556101</v>
+        <v>1.982911451686789</v>
       </c>
       <c r="D10">
-        <v>0.02444966655351877</v>
+        <v>0.01075881199072271</v>
       </c>
       <c r="E10">
-        <v>0.09356162687728187</v>
+        <v>0.2273957053914373</v>
       </c>
       <c r="F10">
-        <v>1.446373341710995</v>
+        <v>2.676195200433227</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.8154579872626613</v>
+        <v>1.097204062994336</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6038330271779841</v>
+        <v>1.87808341059737</v>
       </c>
       <c r="N10">
-        <v>1.19941986094809</v>
+        <v>0.5192785873644397</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.64830126175832</v>
+        <v>5.353843140582057</v>
       </c>
       <c r="C11">
-        <v>0.6164983264730495</v>
+        <v>2.145501274015203</v>
       </c>
       <c r="D11">
-        <v>0.02420708247660386</v>
+        <v>0.01054537731475591</v>
       </c>
       <c r="E11">
-        <v>0.09745405272480667</v>
+        <v>0.2464791207098216</v>
       </c>
       <c r="F11">
-        <v>1.487369310619016</v>
+        <v>2.883552950645253</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.8281358075262375</v>
+        <v>1.173135281871424</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6403357010164967</v>
+        <v>2.032458951084564</v>
       </c>
       <c r="N11">
-        <v>1.189305283742208</v>
+        <v>0.4969042225005325</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.685717092737832</v>
+        <v>5.506012922598018</v>
       </c>
       <c r="C12">
-        <v>0.6315287491458434</v>
+        <v>2.207947801614864</v>
       </c>
       <c r="D12">
-        <v>0.02411794732111616</v>
+        <v>0.01048995612137915</v>
       </c>
       <c r="E12">
-        <v>0.09893830691743943</v>
+        <v>0.253863821910798</v>
       </c>
       <c r="F12">
-        <v>1.503051786114696</v>
+        <v>2.963799014128256</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>0.8330271019374749</v>
+        <v>1.202701842477069</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6541977228741445</v>
+        <v>2.091781891868891</v>
       </c>
       <c r="N12">
-        <v>1.185561801801171</v>
+        <v>0.4888929617152442</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.67765573594545</v>
+        <v>5.473155056956159</v>
       </c>
       <c r="C13">
-        <v>0.6282906013378806</v>
+        <v>2.194457217928232</v>
       </c>
       <c r="D13">
-        <v>0.02413702226814252</v>
+        <v>0.01050069519843078</v>
       </c>
       <c r="E13">
-        <v>0.09861818491864227</v>
+        <v>0.2522659114407517</v>
       </c>
       <c r="F13">
-        <v>1.499667210743354</v>
+        <v>2.946435428664415</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.8319696318308871</v>
+        <v>1.196295969859079</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6512105245237336</v>
+        <v>2.07896470628944</v>
       </c>
       <c r="N13">
-        <v>1.186364161444374</v>
+        <v>0.4905968982038331</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.651378050666722</v>
+        <v>5.36632425573589</v>
       </c>
       <c r="C14">
-        <v>0.6177344046304256</v>
+        <v>2.150620281003683</v>
       </c>
       <c r="D14">
-        <v>0.02419969440174441</v>
+        <v>0.01054028475703106</v>
       </c>
       <c r="E14">
-        <v>0.09757595572350652</v>
+        <v>0.24708333433761</v>
       </c>
       <c r="F14">
-        <v>1.48865633323885</v>
+        <v>2.890118689076161</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.8285363973644451</v>
+        <v>1.17555072312237</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6414753446965165</v>
+        <v>2.037321274846079</v>
       </c>
       <c r="N14">
-        <v>1.188995564026527</v>
+        <v>0.4962355587802421</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.635291514350627</v>
+        <v>5.301131598334337</v>
       </c>
       <c r="C15">
-        <v>0.6112715638606687</v>
+        <v>2.123887894530924</v>
       </c>
       <c r="D15">
-        <v>0.02423843914090895</v>
+        <v>0.01056796554740913</v>
       </c>
       <c r="E15">
-        <v>0.09693890648996017</v>
+        <v>0.2439302800942542</v>
       </c>
       <c r="F15">
-        <v>1.481932524906512</v>
+        <v>2.855855822440958</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.826445259144748</v>
+        <v>1.162953262119728</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6355174115283404</v>
+        <v>2.011930597406447</v>
       </c>
       <c r="N15">
-        <v>1.190618683370396</v>
+        <v>0.4997511633195728</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.543247354958282</v>
+        <v>4.931041766526562</v>
       </c>
       <c r="C16">
-        <v>0.5742827978181708</v>
+        <v>1.972400072945561</v>
       </c>
       <c r="D16">
-        <v>0.02446589924815434</v>
+        <v>0.0107760955933216</v>
       </c>
       <c r="E16">
-        <v>0.09330867140024424</v>
+        <v>0.2261692364191248</v>
       </c>
       <c r="F16">
-        <v>1.443716165697822</v>
+        <v>2.662870421116736</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.8146420608913587</v>
+        <v>1.092348891775345</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6014529223013341</v>
+        <v>1.868107356840241</v>
       </c>
       <c r="N16">
-        <v>1.200092966922064</v>
+        <v>0.5208023812748195</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.486905865424319</v>
+        <v>4.706880553751091</v>
       </c>
       <c r="C17">
-        <v>0.5516325179778505</v>
+        <v>1.880865543033451</v>
       </c>
       <c r="D17">
-        <v>0.02461025053717769</v>
+        <v>0.0109447993766203</v>
       </c>
       <c r="E17">
-        <v>0.09109966183639528</v>
+        <v>0.2155270099322948</v>
       </c>
       <c r="F17">
-        <v>1.420550883784529</v>
+        <v>2.547266788979442</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.8075611152854378</v>
+        <v>1.050355006296172</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.580624158679143</v>
+        <v>1.781257847147586</v>
       </c>
       <c r="N17">
-        <v>1.206058825459415</v>
+        <v>0.5344807487500276</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.454544961506883</v>
+        <v>4.578912815627461</v>
       </c>
       <c r="C18">
-        <v>0.5386194157027262</v>
+        <v>1.82868518370509</v>
       </c>
       <c r="D18">
-        <v>0.02469503289430897</v>
+        <v>0.0110557390022894</v>
       </c>
       <c r="E18">
-        <v>0.08983563671671391</v>
+        <v>0.2094911927095993</v>
       </c>
       <c r="F18">
-        <v>1.407328678409129</v>
+        <v>2.481718943759745</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.8035467535545138</v>
+        <v>1.026650118072837</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5686688887573581</v>
+        <v>1.731767689520368</v>
       </c>
       <c r="N18">
-        <v>1.209546498752104</v>
+        <v>0.5426128206040772</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.443595830568938</v>
+        <v>4.535742280596594</v>
       </c>
       <c r="C19">
-        <v>0.5342158990144981</v>
+        <v>1.81109403766186</v>
       </c>
       <c r="D19">
-        <v>0.02472403899102105</v>
+        <v>0.01109558535974386</v>
       </c>
       <c r="E19">
-        <v>0.08940877461518681</v>
+        <v>0.2074615137787958</v>
       </c>
       <c r="F19">
-        <v>1.402869288389553</v>
+        <v>2.459680579941164</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.8021975573637974</v>
+        <v>1.018697902859955</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5646252795235824</v>
+        <v>1.715086781551108</v>
       </c>
       <c r="N19">
-        <v>1.210737009267582</v>
+        <v>0.5454101986542099</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.492898819256254</v>
+        <v>4.730641116674292</v>
       </c>
       <c r="C20">
-        <v>0.5540421450093049</v>
+        <v>1.890560129920743</v>
       </c>
       <c r="D20">
-        <v>0.02459470213441861</v>
+        <v>0.01092537621016731</v>
       </c>
       <c r="E20">
-        <v>0.0913341360459583</v>
+        <v>0.2166508933247613</v>
       </c>
       <c r="F20">
-        <v>1.423006309233614</v>
+        <v>2.559473531618579</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.8083088405401497</v>
+        <v>1.054778087582122</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5828388325993217</v>
+        <v>1.790454208480341</v>
       </c>
       <c r="N20">
-        <v>1.20541792121552</v>
+        <v>0.5329969239347534</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.659094501508889</v>
+        <v>5.397651544093378</v>
       </c>
       <c r="C21">
-        <v>0.6208343601407478</v>
+        <v>2.163471156429807</v>
       </c>
       <c r="D21">
-        <v>0.02418121176135912</v>
+        <v>0.01052793363921367</v>
       </c>
       <c r="E21">
-        <v>0.09788180267186419</v>
+        <v>0.248601067243186</v>
       </c>
       <c r="F21">
-        <v>1.49188618255647</v>
+        <v>2.906611262552275</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.8295423568430209</v>
+        <v>1.181621033223962</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6443337286201114</v>
+        <v>2.049528266889141</v>
       </c>
       <c r="N21">
-        <v>1.188220299260223</v>
+        <v>0.4945663725015521</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.768127908675979</v>
+        <v>5.844257344994219</v>
       </c>
       <c r="C22">
-        <v>0.664626213341478</v>
+        <v>2.347033389989576</v>
       </c>
       <c r="D22">
-        <v>0.02392688152776401</v>
+        <v>0.01041850095153407</v>
       </c>
       <c r="E22">
-        <v>0.1022211083982043</v>
+        <v>0.270419412169943</v>
       </c>
       <c r="F22">
-        <v>1.537826346321395</v>
+        <v>3.143683268708742</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.8439476061414837</v>
+        <v>1.269326071028985</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6847535241899152</v>
+        <v>2.223968059638537</v>
       </c>
       <c r="N22">
-        <v>1.177486263045218</v>
+        <v>0.4721693862862892</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.709896165592738</v>
+        <v>5.604807826938099</v>
       </c>
       <c r="C23">
-        <v>0.641240540679064</v>
+        <v>2.248532256815395</v>
       </c>
       <c r="D23">
-        <v>0.02406115298251876</v>
+        <v>0.01046172814539048</v>
       </c>
       <c r="E23">
-        <v>0.09989955885981772</v>
+        <v>0.2586793674179972</v>
       </c>
       <c r="F23">
-        <v>1.513221954022356</v>
+        <v>3.016125710723941</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.8362105694615423</v>
+        <v>1.222033689011539</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6631593567838792</v>
+        <v>2.130345087701158</v>
       </c>
       <c r="N23">
-        <v>1.183168735944157</v>
+        <v>0.4838549800444554</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.490189309746654</v>
+        <v>4.719896167619822</v>
       </c>
       <c r="C24">
-        <v>0.5529527251653121</v>
+        <v>1.886175834851997</v>
       </c>
       <c r="D24">
-        <v>0.02460172598677701</v>
+        <v>0.01093411424928448</v>
       </c>
       <c r="E24">
-        <v>0.09122811169943645</v>
+        <v>0.2161425304012781</v>
       </c>
       <c r="F24">
-        <v>1.421895913097103</v>
+        <v>2.553952034442233</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.8079706178409083</v>
+        <v>1.052777056885873</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5818375179798778</v>
+        <v>1.786295170991707</v>
       </c>
       <c r="N24">
-        <v>1.205707493972398</v>
+        <v>0.5336669295754817</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.254921411902387</v>
+        <v>3.801360812439043</v>
       </c>
       <c r="C25">
-        <v>0.4582785970090981</v>
+        <v>1.512782442126024</v>
       </c>
       <c r="D25">
-        <v>0.02525177308515758</v>
+        <v>0.01196521757024449</v>
       </c>
       <c r="E25">
-        <v>0.08212346921160218</v>
+        <v>0.1734499876844495</v>
       </c>
       <c r="F25">
-        <v>1.327270233735646</v>
+        <v>2.090789030598884</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.7797377847152518</v>
+        <v>0.8870353417405283</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4950653572952319</v>
+        <v>1.432491527361378</v>
       </c>
       <c r="N25">
-        <v>1.232167932425611</v>
+        <v>0.597366999279096</v>
       </c>
       <c r="O25">
         <v>0</v>
